--- a/biology/Botanique/Parc_des_Franchises/Parc_des_Franchises.xlsx
+++ b/biology/Botanique/Parc_des_Franchises/Parc_des_Franchises.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc des Franchises est un jardin public qui se situe à Genève, en Suisse.
 </t>
@@ -511,7 +523,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc des Franchises se trouve sur la rive droite du lac Léman, entre l'avenue de Châtelaine et Cité Vieusseux dans le  quartier des Charmilles.
 </t>
@@ -542,7 +556,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc était d'abord une école d'horticulture, fondée par Edmond Louis Vaucher en 1887. Le terrain devint un parc public en 1976 lorsque l'école déménagea à Lullier.
 </t>
@@ -573,19 +589,91 @@
           <t>Contenu du parc</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc des Franchises accueille une place de jeux, une pataugeoire et une piste de skateboard. Du côté de la route des Franchises, en face de Cité Vieusseux, il existe également une zone de liberté pour chiens. En 2018, trois terrains de beach-volley sont également mis à disposition des visiteurs[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc des Franchises accueille une place de jeux, une pataugeoire et une piste de skateboard. Du côté de la route des Franchises, en face de Cité Vieusseux, il existe également une zone de liberté pour chiens. En 2018, trois terrains de beach-volley sont également mis à disposition des visiteurs.
 			Ancienne école d'agriculture.
 			Pataugeoire.
 			Beachvolley.
 			Jardin partagé.
 			Pépinière urbaine, 2023.
 			« ah, ils ont repeint », 2020.
-La roseraie
-Le parc des Franchises abrite une roseraie, résultat d'un travail des élèves de l'école d'horticulture qui se trouvait autrefois à la place du parc. Depuis, la ville de Genève a réalisé deux extensions, qui ont notamment permis de dédier un espace aux roses anciennes. Les roses sont entretenues à l'aide de procédés respectueux de l'environnement.
-Œuvres d'art
-Plusieurs sculptures sont situées dans ce parc, dont L'enfant au pied blessé de Luc Jaggi (1887-1976) acquise par le Fonds municipal d’art contemporain en 1982.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Parc_des_Franchises</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_des_Franchises</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Contenu du parc</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>La roseraie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc des Franchises abrite une roseraie, résultat d'un travail des élèves de l'école d'horticulture qui se trouvait autrefois à la place du parc. Depuis, la ville de Genève a réalisé deux extensions, qui ont notamment permis de dédier un espace aux roses anciennes. Les roses sont entretenues à l'aide de procédés respectueux de l'environnement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Parc_des_Franchises</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_des_Franchises</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Contenu du parc</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Œuvres d'art</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs sculptures sont situées dans ce parc, dont L'enfant au pied blessé de Luc Jaggi (1887-1976) acquise par le Fonds municipal d’art contemporain en 1982.
 			L'enfant au pied blessé.
 			L’Empreinte, 1987.
 			Citation de Victor Hugo.
